--- a/Seat_2023-10-01(Original).xlsx
+++ b/Seat_2023-10-01(Original).xlsx
@@ -84,6 +84,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,18 +124,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,18 +141,6 @@
   </si>
   <si>
     <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,22 +535,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -559,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -575,13 +575,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -591,13 +591,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -607,13 +607,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -623,13 +623,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -639,36 +639,20 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F2:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
